--- a/data/product_info_2.xlsx
+++ b/data/product_info_2.xlsx
@@ -4981,7 +4981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
